--- a/data/case1/11/Qlm1_2.xlsx
+++ b/data/case1/11/Qlm1_2.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.2407032700537286</v>
+        <v>-0.20264560746247184</v>
       </c>
       <c r="B1" s="0">
-        <v>0.24005903776163251</v>
+        <v>0.20216905322129008</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.17164723369493373</v>
+        <v>-0.12841912878991213</v>
       </c>
       <c r="B2" s="0">
-        <v>0.16996995226756439</v>
+        <v>0.1273926444852469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.082762633721397805</v>
+        <v>-0.077677592124414829</v>
       </c>
       <c r="B3" s="0">
-        <v>0.082504373584905366</v>
+        <v>0.077446960435734624</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.074504373686989922</v>
+        <v>-0.069446960467534069</v>
       </c>
       <c r="B4" s="0">
-        <v>0.07428585119726705</v>
+        <v>0.069254152267941294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.071285851253820809</v>
+        <v>-0.066254152284723311</v>
       </c>
       <c r="B5" s="0">
-        <v>0.07056279807840582</v>
+        <v>0.065623420306144098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.036341464947140523</v>
+        <v>-0.017351541342993215</v>
       </c>
       <c r="B6" s="0">
-        <v>0.036052580706533277</v>
+        <v>0.017281649500565877</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.026052580842974571</v>
+        <v>-0.0072816495432976858</v>
       </c>
       <c r="B7" s="0">
-        <v>0.025994042506207293</v>
+        <v>0.007276182123594932</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.015994042645494755</v>
+        <v>-0.009918556039143045</v>
       </c>
       <c r="B8" s="0">
-        <v>0.015919366349516739</v>
+        <v>0.0098979729362658198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.013919366410448664</v>
+        <v>-0.007897972953295973</v>
       </c>
       <c r="B9" s="0">
-        <v>0.013867055405548001</v>
+        <v>0.0078879613018592032</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.011867055467725152</v>
+        <v>-0.0058879613191251678</v>
       </c>
       <c r="B10" s="0">
-        <v>0.011866866080303851</v>
+        <v>0.005888117302161433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0088668661526662973</v>
+        <v>-0.0028881173227111034</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0088644828083994653</v>
+        <v>0.0028882057002412864</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0053644828859695792</v>
+        <v>0.00061179427759983085</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0053495141150157188</v>
+        <v>-0.00061339808560312292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017169059775417495</v>
+        <v>0.0041133980637315659</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017081008156859312</v>
+        <v>-0.0041192138301795467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090810082800523162</v>
+        <v>0.012119213793807759</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090526719684165258</v>
+        <v>-0.012141734652164615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080526720221874015</v>
+        <v>-0.0080516403726456076</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080344219141368356</v>
+        <v>0.0080335433247222809</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060344219785943842</v>
+        <v>-0.0060335433412688211</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060031150135615441</v>
+        <v>0.0060034935430643976</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040031150786710157</v>
+        <v>-0.0040034935599511101</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999145789999</v>
+        <v>0.0039999999764495087</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.062411804129855142</v>
+        <v>-0.016105603993548101</v>
       </c>
       <c r="B18" s="0">
-        <v>0.062244358332620209</v>
+        <v>0.016091948126934597</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091087443546478</v>
+        <v>-0.012091948140999786</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012015862898555163</v>
+        <v>0.012016991881657724</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080158629462907527</v>
+        <v>-0.0080169918967101239</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080055232077942406</v>
+        <v>0.0080056983753049593</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040055232560636256</v>
+        <v>-0.004005698390534107</v>
       </c>
       <c r="B21" s="0">
-        <v>0.003999999951297184</v>
+        <v>0.0039999999846420664</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.04571754641054504</v>
+        <v>-0.045715052378083598</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045502976860242406</v>
+        <v>0.045500695461669238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040502976931294121</v>
+        <v>-0.040500695483331128</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099647243019731</v>
+        <v>0.040099407218699312</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.02009964747057591</v>
+        <v>-0.020099407291542803</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999769152232</v>
+        <v>0.019999999926148426</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.03222133318790199</v>
+        <v>-0.046271878979732506</v>
       </c>
       <c r="B25" s="0">
-        <v>0.032214349768860728</v>
+        <v>0.046239691393108018</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.029714349829250253</v>
+        <v>-0.043739691411744275</v>
       </c>
       <c r="B26" s="0">
-        <v>0.029706560647243307</v>
+        <v>0.043701652074624064</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.027206560708592065</v>
+        <v>-0.041201652093859398</v>
       </c>
       <c r="B27" s="0">
-        <v>0.027156438332942567</v>
+        <v>0.04099625772540838</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.025156438394337677</v>
+        <v>-0.038996257745589347</v>
       </c>
       <c r="B28" s="0">
-        <v>0.025127145916333582</v>
+        <v>0.038870630823025998</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081346541224799118</v>
+        <v>-0.031870630861465798</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081165565553721564</v>
+        <v>0.03184493170479552</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021165566205404218</v>
+        <v>0.028155068082261536</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021021325919051037</v>
+        <v>-0.028206763507530486</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014021326045266846</v>
+        <v>-0.014023234869798173</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000814594327338</v>
+        <v>0.014001406425977692</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.004000814751146109</v>
+        <v>-0.0040014064737210475</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999029820543</v>
+        <v>0.0039999999718425272</v>
       </c>
     </row>
   </sheetData>
